--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>日期</t>
   </si>
@@ -30,6 +30,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>讨论班节余</t>
+  </si>
+  <si>
     <t>陈宇老师（凉席）</t>
   </si>
 </sst>
@@ -39,11 +42,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,7 +56,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,14 +71,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,20 +95,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,8 +159,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -151,53 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,19 +208,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,145 +376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,65 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,7 +421,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,153 +455,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
@@ -1051,12 +1047,23 @@
     <row r="2" hidden="1"/>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42847</v>
+        <v>42838</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
+        <v>458.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42847</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
         <v>-299</v>
       </c>
     </row>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>日期</t>
   </si>
@@ -35,16 +35,22 @@
   <si>
     <t>陈宇老师（凉席）</t>
   </si>
+  <si>
+    <t>公交卡（节余）</t>
+  </si>
+  <si>
+    <t>价值100元</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,6 +69,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -72,6 +116,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,30 +174,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,76 +204,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -208,25 +214,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,157 +376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +405,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -413,15 +430,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +449,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -452,6 +469,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,26 +500,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -507,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
@@ -1065,6 +1071,20 @@
       </c>
       <c r="C4" s="1">
         <v>-299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>42849</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>日期</t>
   </si>
@@ -41,6 +41,9 @@
   <si>
     <t>价值100元</t>
   </si>
+  <si>
+    <t>小米电水壶</t>
+  </si>
 </sst>
 </file>
 
@@ -48,9 +51,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +65,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,23 +86,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,29 +108,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,31 +130,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,9 +194,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,21 +205,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,25 +217,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,13 +319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,18 +337,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,7 +349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,103 +373,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +411,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,17 +456,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,6 +481,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,39 +508,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
@@ -1085,6 +1088,17 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42863</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-199</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>日期</t>
   </si>
@@ -44,14 +44,20 @@
   <si>
     <t>小米电水壶</t>
   </si>
+  <si>
+    <t>宣传海报（两张）</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -65,6 +71,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -72,20 +100,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,30 +107,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,8 +159,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -140,69 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +414,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,17 +471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,6 +497,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -466,48 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
@@ -1099,6 +1105,28 @@
       </c>
       <c r="C6" s="1">
         <v>-199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42868</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42868</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>日期</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>收入</t>
+  </si>
+  <si>
+    <t>墨水笔</t>
+  </si>
+  <si>
+    <t>HDMI转DVI线</t>
+  </si>
+  <si>
+    <t>运费</t>
   </si>
 </sst>
 </file>
@@ -56,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,14 +80,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,6 +116,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,22 +201,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,76 +222,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,17 +435,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,30 +455,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +493,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
@@ -1127,6 +1136,50 @@
       </c>
       <c r="C8" s="1">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42872</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42872</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42872</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-35.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42872</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-6</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>运费</t>
+  </si>
+  <si>
+    <t>海报</t>
   </si>
 </sst>
 </file>
@@ -65,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +86,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,6 +128,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,7 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,53 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,33 +220,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -232,31 +235,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,13 +343,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,115 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,9 +440,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,37 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +483,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -534,7 +537,7 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,19 +546,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,109 +570,109 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1180,6 +1183,17 @@
       </c>
       <c r="C12" s="1">
         <v>-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42878</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>海报</t>
+  </si>
+  <si>
+    <t>钢笔（奖品）</t>
   </si>
 </sst>
 </file>
@@ -68,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,14 +86,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,18 +168,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,93 +199,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,12 +238,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,85 +358,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,79 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,26 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,6 +443,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,39 +521,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,6 +742,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1043,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1194,6 +1202,17 @@
       </c>
       <c r="C13" s="1">
         <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42888</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-166</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>钢笔（奖品）</t>
+  </si>
+  <si>
+    <t>东方树叶（三箱）</t>
   </si>
 </sst>
 </file>
@@ -73,8 +76,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,6 +96,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -100,61 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,16 +139,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,24 +163,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,8 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,25 +241,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,25 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,127 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,17 +435,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,11 +459,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,8 +506,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -504,28 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1213,6 +1216,17 @@
       </c>
       <c r="C14" s="1">
         <v>-166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42894</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-159.6</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>东方树叶（三箱）</t>
+  </si>
+  <si>
+    <t>获王老师赞助</t>
   </si>
 </sst>
 </file>
@@ -74,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +98,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,38 +175,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,31 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,36 +213,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -241,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,38 +441,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,13 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,11 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,17 +1050,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1227,6 +1229,39 @@
       </c>
       <c r="C15" s="1">
         <v>-159.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42897</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42902</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42915</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>日期</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>获王老师赞助</t>
+  </si>
+  <si>
+    <t>两个电水壶</t>
   </si>
 </sst>
 </file>
@@ -77,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -92,12 +95,126 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -113,52 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -166,74 +237,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,13 +247,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,108 +421,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,60 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,20 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +463,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,16 +507,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,17 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,12 +1057,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1264,6 +1267,28 @@
         <v>200</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42915</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42928</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1275,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1292,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>两个电水壶</t>
+  </si>
+  <si>
+    <t>买咖啡</t>
   </si>
 </sst>
 </file>
@@ -94,6 +97,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -101,99 +157,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +195,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -214,27 +234,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -253,13 +256,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,37 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,109 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,21 +441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,8 +458,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,11 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1287,6 +1290,39 @@
       </c>
       <c r="C20" s="1">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42959</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42973</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42973</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-194</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>买咖啡</t>
+  </si>
+  <si>
+    <t>台灯</t>
+  </si>
+  <si>
+    <t>移动电源</t>
+  </si>
+  <si>
+    <t>深度学习</t>
+  </si>
+  <si>
+    <t>证书</t>
   </si>
 </sst>
 </file>
@@ -97,6 +109,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,128 +239,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,19 +262,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,163 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,41 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,26 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +503,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1323,6 +1335,72 @@
       </c>
       <c r="C23" s="1">
         <v>-194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42989</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42989</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42996</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-61.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>日期</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>证书</t>
+  </si>
+  <si>
+    <t>U盘</t>
   </si>
 </sst>
 </file>
@@ -95,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -109,6 +112,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,28 +174,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,15 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +225,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -199,55 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +456,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,17 +524,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -506,50 +550,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,10 +1077,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1361,24 +1364,24 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42996</v>
+        <v>42990</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>-96</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>43005</v>
+        <v>42996</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
-        <v>-99</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1386,21 +1389,43 @@
         <v>43005</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>-61.5</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43009</v>
+        <v>43005</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-61.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-229</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="16980" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>U盘</t>
+  </si>
+  <si>
+    <t>顺风快递费</t>
+  </si>
+  <si>
+    <t>海报等</t>
   </si>
 </sst>
 </file>
@@ -100,8 +106,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,6 +118,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -125,6 +145,112 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,126 +261,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -265,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,31 +484,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +511,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,8 +533,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,10 +1083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1426,6 +1432,39 @@
       </c>
       <c r="C31" s="1">
         <v>-229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>43024</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16980" windowHeight="11370"/>
+    <workbookView windowWidth="19770" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>海报等</t>
+  </si>
+  <si>
+    <t>笔记本</t>
+  </si>
+  <si>
+    <t>帽子</t>
   </si>
 </sst>
 </file>
@@ -132,19 +138,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +168,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -163,13 +199,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -177,26 +222,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,60 +267,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,16 +472,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,15 +541,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,10 +1089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1465,6 +1471,28 @@
       </c>
       <c r="C34" s="1">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-109</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>顺风快递费</t>
+  </si>
+  <si>
+    <t>金士顿U盘</t>
+  </si>
+  <si>
+    <t>九阳榨汁机</t>
   </si>
   <si>
     <t>海报等</t>
@@ -110,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,12 +131,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -139,6 +167,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -146,7 +189,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,103 +266,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,31 +283,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +427,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,127 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,45 +478,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +503,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,23 +549,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1453,46 +1459,79 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43049</v>
+        <v>43036</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="1">
-        <v>-20</v>
+        <v>-99.9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>43049</v>
+        <v>43036</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
-        <v>1000</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>43055</v>
+        <v>43049</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
-        <v>-94</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>43055</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
         <v>-109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>43057</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-368</v>
       </c>
     </row>
   </sheetData>

--- a/收支明细.xlsx
+++ b/收支明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>日期</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>帽子</t>
+  </si>
+  <si>
+    <t>买证书</t>
+  </si>
+  <si>
+    <t>买台灯</t>
+  </si>
+  <si>
+    <t>买书</t>
+  </si>
+  <si>
+    <t>眼镜</t>
+  </si>
+  <si>
+    <t>买零食</t>
   </si>
 </sst>
 </file>
@@ -117,9 +132,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,7 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +154,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,27 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -182,69 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,22 +288,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -283,48 +298,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,133 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,17 +492,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,66 +570,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1532,6 +1547,72 @@
       </c>
       <c r="C39" s="1">
         <v>-368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-85.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-104.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>43092</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>43092</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-59</v>
       </c>
     </row>
   </sheetData>
